--- a/xlsx/捷克国家图书馆_intext.xlsx
+++ b/xlsx/捷克国家图书馆_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="163">
   <si>
     <t>捷克国家图书馆</t>
   </si>
@@ -29,13 +29,13 @@
     <t>捷克</t>
   </si>
   <si>
-    <t>政策_政策_維基百科_捷克国家图书馆</t>
+    <t>政策_政策_维基百科_捷克国家图书馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>國家圖書館</t>
+    <t>国家图书馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E6%8B%89%E6%A0%BC</t>
@@ -59,19 +59,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%8D%B7%E5%85%8B%E8%AA%9E</t>
   </si>
   <si>
-    <t>捷克語</t>
+    <t>捷克语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8D%B7%E5%85%8B%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>捷克共和國</t>
+    <t>捷克共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%A4%AE%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>中央圖書館</t>
+    <t>中央图书馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%9F%E8%80%B3%E5%85%B6</t>
@@ -101,7 +101,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E6%95%99%E7%A7%91%E6%96%87%E7%B5%84%E7%B9%94</t>
   </si>
   <si>
-    <t>聯合國教科文組織</t>
+    <t>联合国教科文组织</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E8%AE%B0%E5%BF%86%E8%AE%A1%E5%88%92</t>
@@ -119,7 +119,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%8D%B7%E5%85%8B%E7%B8%BD%E7%B5%B1</t>
   </si>
   <si>
-    <t>捷克總統</t>
+    <t>捷克总统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%93%A6%E8%8C%A8%E6%8B%89%E5%A4%AB%C2%B7%E5%85%8B%E5%8A%B3%E6%96%AF</t>
@@ -137,7 +137,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E5%9C%96%E6%9B%B8%E9%A4%A8%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>國家圖書館列表</t>
+    <t>国家图书馆列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Template_talk:%E6%AC%A7%E6%B4%B2%E9%A2%98%E7%9B%AE</t>
@@ -155,37 +155,34 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E5%AE%B6%E5%9B%BE%E4%B9%A6%E9%A6%86</t>
   </si>
   <si>
-    <t>国家图书馆</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B</t>
   </si>
   <si>
-    <t>聯合國</t>
+    <t>联合国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E6%9C%83%E5%93%A1%E5%9C%8B%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>聯合國會員國列表</t>
+    <t>联合国会员国列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E7%88%BE%E5%B7%B4%E5%B0%BC%E4%BA%9E%E5%9C%8B%E5%AE%B6%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>阿爾巴尼亞國家圖書館</t>
+    <t>阿尔巴尼亚国家图书馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E9%81%93%E7%88%BE%E5%9C%8B%E5%AE%B6%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>安道爾國家圖書館</t>
+    <t>安道尔国家图书馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E7%BE%8E%E5%B0%BC%E4%BA%9E%E5%9C%8B%E5%AE%B6%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>亞美尼亞國家圖書館</t>
+    <t>亚美尼亚国家图书馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A5%E5%9C%B0%E5%88%A9%E5%9B%BD%E5%AE%B6%E5%9B%BE%E4%B9%A6%E9%A6%86</t>
@@ -197,37 +194,37 @@
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%A1%9E%E6%8B%9C%E7%96%86%E5%9C%8B%E5%AE%B6%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>阿塞拜疆國家圖書館</t>
+    <t>阿塞拜疆国家图书馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%99%BD%E4%BF%84%E7%BE%85%E6%96%AF%E5%9C%8B%E5%AE%B6%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>白俄羅斯國家圖書館</t>
+    <t>白俄罗斯国家图书馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AF%94%E5%88%A9%E6%99%82%E5%9C%8B%E5%AE%B6%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>比利時國家圖書館</t>
+    <t>比利时国家图书馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E6%96%AF%E5%B0%BC%E4%BA%9E%E5%92%8C%E9%BB%91%E5%A1%9E%E5%93%A5%E7%B6%AD%E9%82%A3%E5%9C%8B%E5%AE%B6%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>波斯尼亞和黑塞哥維那國家圖書館</t>
+    <t>波斯尼亚和黑塞哥维那国家图书馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E5%8A%A0%E5%88%A9%E4%BA%9E%E5%9C%8B%E5%AE%B6%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>保加利亞國家圖書館</t>
+    <t>保加利亚国家图书馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E7%BE%85%E5%9C%B0%E4%BA%9E%E5%9C%8B%E5%AE%B6%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>克羅地亞國家圖書館</t>
+    <t>克罗地亚国家图书馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E6%B5%A6%E8%B7%AF%E6%96%AF%E5%9B%BD%E5%AE%B6%E5%9B%BE%E4%B9%A6%E9%A6%86</t>
@@ -239,19 +236,19 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%B9%E9%BA%A5%E5%9C%8B%E5%AE%B6%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>丹麥國家圖書館</t>
+    <t>丹麦国家图书馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%84%9B%E6%B2%99%E5%B0%BC%E4%BA%9E%E5%9C%8B%E5%AE%B6%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>愛沙尼亞國家圖書館</t>
+    <t>爱沙尼亚国家图书馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8A%AC%E8%98%AD%E5%9C%8B%E5%AE%B6%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>芬蘭國家圖書館</t>
+    <t>芬兰国家图书馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9B%BD%E5%9B%BD%E5%AE%B6%E5%9B%BE%E4%B9%A6%E9%A6%86</t>
@@ -263,7 +260,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E9%AD%AF%E5%90%89%E4%BA%9E%E5%9C%8B%E5%AE%B6%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>格魯吉亞國家圖書館</t>
+    <t>格鲁吉亚国家图书馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9B%BD%E5%9B%BD%E5%AE%B6%E5%9B%BE%E4%B9%A6%E9%A6%86</t>
@@ -281,13 +278,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8C%88%E7%89%99%E5%88%A9%E5%9C%8B%E5%AE%B6%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>匈牙利國家圖書館</t>
+    <t>匈牙利国家图书馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%86%B0%E5%B3%B6%E5%9C%8B%E5%AE%B6%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>冰島國家圖書館</t>
+    <t>冰岛国家图书馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%88%B1%E5%B0%94%E5%85%B0%E5%9B%BD%E5%AE%B6%E5%9B%BE%E4%B9%A6%E9%A6%86</t>
@@ -305,19 +302,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%93%88%E8%96%A9%E5%85%8B%E6%96%AF%E5%9D%A6%E5%9C%8B%E5%AE%B6%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>哈薩克斯坦國家圖書館</t>
+    <t>哈萨克斯坦国家图书馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E8%84%AB%E7%B6%AD%E4%BA%9E%E5%9C%8B%E5%AE%B6%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>拉脫維亞國家圖書館</t>
+    <t>拉脱维亚国家图书馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%97%E6%94%AF%E6%95%A6%E5%A3%AB%E7%99%BB%E5%9C%8B%E5%AE%B6%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>列支敦士登國家圖書館</t>
+    <t>列支敦士登国家图书馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AB%8B%E9%99%B6%E5%AE%9B%E5%9B%BD%E5%AE%B6%E5%9B%BE%E4%B9%A6%E9%A6%86</t>
@@ -329,7 +326,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%9B%A7%E6%A3%AE%E5%A0%A1%E5%9C%8B%E5%AE%B6%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>盧森堡國家圖書館</t>
+    <t>卢森堡国家图书馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E5%85%B6%E9%A1%BF%E5%9B%BD%E5%AE%B6%E5%9B%BE%E4%B9%A6%E9%A6%86</t>
@@ -341,49 +338,49 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E7%88%BE%E4%BB%96%E5%9C%8B%E5%AE%B6%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>馬爾他國家圖書館</t>
+    <t>马尔他国家图书馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%91%A9%E7%88%BE%E5%A4%9A%E7%93%A6%E5%9C%8B%E5%AE%B6%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>摩爾多瓦國家圖書館</t>
+    <t>摩尔多瓦国家图书馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%91%A9%E7%B4%8D%E5%93%A5%E5%9C%8B%E5%AE%B6%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>摩納哥國家圖書館</t>
+    <t>摩纳哥国家图书馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E8%98%AD%E5%9C%8B%E5%AE%B6%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>荷蘭國家圖書館</t>
+    <t>荷兰国家图书馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8C%AA%E5%A8%81%E5%9C%8B%E5%AE%B6%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>挪威國家圖書館</t>
+    <t>挪威国家图书馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E8%98%AD%E5%9C%8B%E5%AE%B6%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>波蘭國家圖書館</t>
+    <t>波兰国家图书馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%91%A1%E8%90%84%E7%89%99%E5%9C%8B%E5%AE%B6%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>葡萄牙國家圖書館</t>
+    <t>葡萄牙国家图书馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E9%A6%AC%E5%B0%BC%E4%BA%9E%E5%9C%8B%E5%AE%B6%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>羅馬尼亞國家圖書館</t>
+    <t>罗马尼亚国家图书馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E7%BD%97%E6%96%AF%E5%9B%BD%E5%AE%B6%E5%9B%BE%E4%B9%A6%E9%A6%86</t>
@@ -395,19 +392,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E7%88%BE%E7%B6%AD%E4%BA%9E%E5%9C%8B%E5%AE%B6%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>塞爾維亞國家圖書館</t>
+    <t>塞尔维亚国家图书馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E6%B4%9B%E4%BC%90%E5%85%8B%E5%9C%8B%E5%AE%B6%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>斯洛伐克國家圖書館</t>
+    <t>斯洛伐克国家图书馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E6%B4%9B%E7%B6%AD%E5%B0%BC%E4%BA%9E%E5%9C%8B%E5%AE%B6%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>斯洛維尼亞國家圖書館</t>
+    <t>斯洛维尼亚国家图书馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%8F%AD%E7%89%99%E5%9B%BD%E5%AE%B6%E5%9B%BE%E4%B9%A6%E9%A6%86</t>
@@ -425,7 +422,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%91%9E%E5%A3%AB%E5%9C%8B%E5%AE%B6%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>瑞士國家圖書館</t>
+    <t>瑞士国家图书馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B9%8C%E5%85%8B%E5%85%B0%E5%9B%BD%E5%AE%B6%E5%9B%BE%E4%B9%A6%E9%A6%86</t>
@@ -437,7 +434,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B%E5%9C%8B%E5%AE%B6%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>英國國家圖書館</t>
+    <t>英国国家图书馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%89%E9%99%90%E6%89%BF%E8%AE%A4%E5%9B%BD%E5%AE%B6%E5%88%97%E8%A1%A8</t>
@@ -455,19 +452,19 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%BB%E6%AC%8A</t>
   </si>
   <si>
-    <t>主權</t>
+    <t>主权</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A2%B5%E8%92%82%E5%B2%A1%E5%9C%8B%E5%AE%B6%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>梵蒂岡國家圖書館</t>
+    <t>梵蒂冈国家图书馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%99%9A%E6%8B%9F%E5%9B%BD%E9%99%85%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -479,7 +476,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E6%A8%99%E6%BA%96%E5%90%8D%E7%A8%B1%E8%AD%98%E5%88%A5%E7%A2%BC</t>
   </si>
   <si>
-    <t>國際標準名稱識別碼</t>
+    <t>国际标准名称识别码</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -497,7 +494,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%AD%B8%E6%96%87%E6%AA%94%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>大學文檔系統</t>
+    <t>大学文档系统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8D%B7%E5%85%8B%E5%85%B1%E5%92%8C%E5%9C%8B%E5%9C%8B%E5%AE%B6%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
@@ -1515,7 +1512,7 @@
         <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>46</v>
+        <v>6</v>
       </c>
       <c r="G23" t="n">
         <v>5</v>
@@ -1541,10 +1538,10 @@
         <v>23</v>
       </c>
       <c r="E24" t="s">
+        <v>46</v>
+      </c>
+      <c r="F24" t="s">
         <v>47</v>
-      </c>
-      <c r="F24" t="s">
-        <v>48</v>
       </c>
       <c r="G24" t="n">
         <v>2</v>
@@ -1570,10 +1567,10 @@
         <v>24</v>
       </c>
       <c r="E25" t="s">
+        <v>48</v>
+      </c>
+      <c r="F25" t="s">
         <v>49</v>
-      </c>
-      <c r="F25" t="s">
-        <v>50</v>
       </c>
       <c r="G25" t="n">
         <v>1</v>
@@ -1599,10 +1596,10 @@
         <v>25</v>
       </c>
       <c r="E26" t="s">
+        <v>50</v>
+      </c>
+      <c r="F26" t="s">
         <v>51</v>
-      </c>
-      <c r="F26" t="s">
-        <v>52</v>
       </c>
       <c r="G26" t="n">
         <v>1</v>
@@ -1628,10 +1625,10 @@
         <v>26</v>
       </c>
       <c r="E27" t="s">
+        <v>52</v>
+      </c>
+      <c r="F27" t="s">
         <v>53</v>
-      </c>
-      <c r="F27" t="s">
-        <v>54</v>
       </c>
       <c r="G27" t="n">
         <v>1</v>
@@ -1657,10 +1654,10 @@
         <v>27</v>
       </c>
       <c r="E28" t="s">
+        <v>54</v>
+      </c>
+      <c r="F28" t="s">
         <v>55</v>
-      </c>
-      <c r="F28" t="s">
-        <v>56</v>
       </c>
       <c r="G28" t="n">
         <v>1</v>
@@ -1686,10 +1683,10 @@
         <v>28</v>
       </c>
       <c r="E29" t="s">
+        <v>56</v>
+      </c>
+      <c r="F29" t="s">
         <v>57</v>
-      </c>
-      <c r="F29" t="s">
-        <v>58</v>
       </c>
       <c r="G29" t="n">
         <v>1</v>
@@ -1715,10 +1712,10 @@
         <v>29</v>
       </c>
       <c r="E30" t="s">
+        <v>58</v>
+      </c>
+      <c r="F30" t="s">
         <v>59</v>
-      </c>
-      <c r="F30" t="s">
-        <v>60</v>
       </c>
       <c r="G30" t="n">
         <v>1</v>
@@ -1744,10 +1741,10 @@
         <v>30</v>
       </c>
       <c r="E31" t="s">
+        <v>60</v>
+      </c>
+      <c r="F31" t="s">
         <v>61</v>
-      </c>
-      <c r="F31" t="s">
-        <v>62</v>
       </c>
       <c r="G31" t="n">
         <v>1</v>
@@ -1773,10 +1770,10 @@
         <v>31</v>
       </c>
       <c r="E32" t="s">
+        <v>62</v>
+      </c>
+      <c r="F32" t="s">
         <v>63</v>
-      </c>
-      <c r="F32" t="s">
-        <v>64</v>
       </c>
       <c r="G32" t="n">
         <v>1</v>
@@ -1802,10 +1799,10 @@
         <v>32</v>
       </c>
       <c r="E33" t="s">
+        <v>64</v>
+      </c>
+      <c r="F33" t="s">
         <v>65</v>
-      </c>
-      <c r="F33" t="s">
-        <v>66</v>
       </c>
       <c r="G33" t="n">
         <v>1</v>
@@ -1831,10 +1828,10 @@
         <v>33</v>
       </c>
       <c r="E34" t="s">
+        <v>66</v>
+      </c>
+      <c r="F34" t="s">
         <v>67</v>
-      </c>
-      <c r="F34" t="s">
-        <v>68</v>
       </c>
       <c r="G34" t="n">
         <v>1</v>
@@ -1860,10 +1857,10 @@
         <v>34</v>
       </c>
       <c r="E35" t="s">
+        <v>68</v>
+      </c>
+      <c r="F35" t="s">
         <v>69</v>
-      </c>
-      <c r="F35" t="s">
-        <v>70</v>
       </c>
       <c r="G35" t="n">
         <v>1</v>
@@ -1889,10 +1886,10 @@
         <v>35</v>
       </c>
       <c r="E36" t="s">
+        <v>70</v>
+      </c>
+      <c r="F36" t="s">
         <v>71</v>
-      </c>
-      <c r="F36" t="s">
-        <v>72</v>
       </c>
       <c r="G36" t="n">
         <v>2</v>
@@ -1918,10 +1915,10 @@
         <v>36</v>
       </c>
       <c r="E37" t="s">
+        <v>72</v>
+      </c>
+      <c r="F37" t="s">
         <v>73</v>
-      </c>
-      <c r="F37" t="s">
-        <v>74</v>
       </c>
       <c r="G37" t="n">
         <v>1</v>
@@ -1947,10 +1944,10 @@
         <v>37</v>
       </c>
       <c r="E38" t="s">
+        <v>74</v>
+      </c>
+      <c r="F38" t="s">
         <v>75</v>
-      </c>
-      <c r="F38" t="s">
-        <v>76</v>
       </c>
       <c r="G38" t="n">
         <v>1</v>
@@ -1976,10 +1973,10 @@
         <v>38</v>
       </c>
       <c r="E39" t="s">
+        <v>76</v>
+      </c>
+      <c r="F39" t="s">
         <v>77</v>
-      </c>
-      <c r="F39" t="s">
-        <v>78</v>
       </c>
       <c r="G39" t="n">
         <v>1</v>
@@ -2005,10 +2002,10 @@
         <v>39</v>
       </c>
       <c r="E40" t="s">
+        <v>78</v>
+      </c>
+      <c r="F40" t="s">
         <v>79</v>
-      </c>
-      <c r="F40" t="s">
-        <v>80</v>
       </c>
       <c r="G40" t="n">
         <v>1</v>
@@ -2034,10 +2031,10 @@
         <v>40</v>
       </c>
       <c r="E41" t="s">
+        <v>80</v>
+      </c>
+      <c r="F41" t="s">
         <v>81</v>
-      </c>
-      <c r="F41" t="s">
-        <v>82</v>
       </c>
       <c r="G41" t="n">
         <v>1</v>
@@ -2063,10 +2060,10 @@
         <v>41</v>
       </c>
       <c r="E42" t="s">
+        <v>82</v>
+      </c>
+      <c r="F42" t="s">
         <v>83</v>
-      </c>
-      <c r="F42" t="s">
-        <v>84</v>
       </c>
       <c r="G42" t="n">
         <v>1</v>
@@ -2092,10 +2089,10 @@
         <v>42</v>
       </c>
       <c r="E43" t="s">
+        <v>84</v>
+      </c>
+      <c r="F43" t="s">
         <v>85</v>
-      </c>
-      <c r="F43" t="s">
-        <v>86</v>
       </c>
       <c r="G43" t="n">
         <v>1</v>
@@ -2121,10 +2118,10 @@
         <v>43</v>
       </c>
       <c r="E44" t="s">
+        <v>86</v>
+      </c>
+      <c r="F44" t="s">
         <v>87</v>
-      </c>
-      <c r="F44" t="s">
-        <v>88</v>
       </c>
       <c r="G44" t="n">
         <v>1</v>
@@ -2150,10 +2147,10 @@
         <v>44</v>
       </c>
       <c r="E45" t="s">
+        <v>88</v>
+      </c>
+      <c r="F45" t="s">
         <v>89</v>
-      </c>
-      <c r="F45" t="s">
-        <v>90</v>
       </c>
       <c r="G45" t="n">
         <v>1</v>
@@ -2179,10 +2176,10 @@
         <v>45</v>
       </c>
       <c r="E46" t="s">
+        <v>90</v>
+      </c>
+      <c r="F46" t="s">
         <v>91</v>
-      </c>
-      <c r="F46" t="s">
-        <v>92</v>
       </c>
       <c r="G46" t="n">
         <v>1</v>
@@ -2208,10 +2205,10 @@
         <v>46</v>
       </c>
       <c r="E47" t="s">
+        <v>92</v>
+      </c>
+      <c r="F47" t="s">
         <v>93</v>
-      </c>
-      <c r="F47" t="s">
-        <v>94</v>
       </c>
       <c r="G47" t="n">
         <v>1</v>
@@ -2237,10 +2234,10 @@
         <v>47</v>
       </c>
       <c r="E48" t="s">
+        <v>94</v>
+      </c>
+      <c r="F48" t="s">
         <v>95</v>
-      </c>
-      <c r="F48" t="s">
-        <v>96</v>
       </c>
       <c r="G48" t="n">
         <v>1</v>
@@ -2266,10 +2263,10 @@
         <v>48</v>
       </c>
       <c r="E49" t="s">
+        <v>96</v>
+      </c>
+      <c r="F49" t="s">
         <v>97</v>
-      </c>
-      <c r="F49" t="s">
-        <v>98</v>
       </c>
       <c r="G49" t="n">
         <v>1</v>
@@ -2295,10 +2292,10 @@
         <v>49</v>
       </c>
       <c r="E50" t="s">
+        <v>98</v>
+      </c>
+      <c r="F50" t="s">
         <v>99</v>
-      </c>
-      <c r="F50" t="s">
-        <v>100</v>
       </c>
       <c r="G50" t="n">
         <v>1</v>
@@ -2324,10 +2321,10 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
+        <v>100</v>
+      </c>
+      <c r="F51" t="s">
         <v>101</v>
-      </c>
-      <c r="F51" t="s">
-        <v>102</v>
       </c>
       <c r="G51" t="n">
         <v>1</v>
@@ -2353,10 +2350,10 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
+        <v>102</v>
+      </c>
+      <c r="F52" t="s">
         <v>103</v>
-      </c>
-      <c r="F52" t="s">
-        <v>104</v>
       </c>
       <c r="G52" t="n">
         <v>1</v>
@@ -2382,10 +2379,10 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
+        <v>104</v>
+      </c>
+      <c r="F53" t="s">
         <v>105</v>
-      </c>
-      <c r="F53" t="s">
-        <v>106</v>
       </c>
       <c r="G53" t="n">
         <v>1</v>
@@ -2411,10 +2408,10 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
+        <v>106</v>
+      </c>
+      <c r="F54" t="s">
         <v>107</v>
-      </c>
-      <c r="F54" t="s">
-        <v>108</v>
       </c>
       <c r="G54" t="n">
         <v>2</v>
@@ -2440,10 +2437,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
+        <v>108</v>
+      </c>
+      <c r="F55" t="s">
         <v>109</v>
-      </c>
-      <c r="F55" t="s">
-        <v>110</v>
       </c>
       <c r="G55" t="n">
         <v>1</v>
@@ -2469,10 +2466,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
+        <v>110</v>
+      </c>
+      <c r="F56" t="s">
         <v>111</v>
-      </c>
-      <c r="F56" t="s">
-        <v>112</v>
       </c>
       <c r="G56" t="n">
         <v>1</v>
@@ -2498,10 +2495,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
+        <v>112</v>
+      </c>
+      <c r="F57" t="s">
         <v>113</v>
-      </c>
-      <c r="F57" t="s">
-        <v>114</v>
       </c>
       <c r="G57" t="n">
         <v>1</v>
@@ -2527,10 +2524,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
+        <v>114</v>
+      </c>
+      <c r="F58" t="s">
         <v>115</v>
-      </c>
-      <c r="F58" t="s">
-        <v>116</v>
       </c>
       <c r="G58" t="n">
         <v>1</v>
@@ -2556,10 +2553,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
+        <v>116</v>
+      </c>
+      <c r="F59" t="s">
         <v>117</v>
-      </c>
-      <c r="F59" t="s">
-        <v>118</v>
       </c>
       <c r="G59" t="n">
         <v>1</v>
@@ -2585,10 +2582,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
+        <v>118</v>
+      </c>
+      <c r="F60" t="s">
         <v>119</v>
-      </c>
-      <c r="F60" t="s">
-        <v>120</v>
       </c>
       <c r="G60" t="n">
         <v>1</v>
@@ -2614,10 +2611,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
+        <v>120</v>
+      </c>
+      <c r="F61" t="s">
         <v>121</v>
-      </c>
-      <c r="F61" t="s">
-        <v>122</v>
       </c>
       <c r="G61" t="n">
         <v>1</v>
@@ -2643,10 +2640,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
+        <v>122</v>
+      </c>
+      <c r="F62" t="s">
         <v>123</v>
-      </c>
-      <c r="F62" t="s">
-        <v>124</v>
       </c>
       <c r="G62" t="n">
         <v>2</v>
@@ -2672,10 +2669,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
+        <v>124</v>
+      </c>
+      <c r="F63" t="s">
         <v>125</v>
-      </c>
-      <c r="F63" t="s">
-        <v>126</v>
       </c>
       <c r="G63" t="n">
         <v>1</v>
@@ -2701,10 +2698,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
+        <v>126</v>
+      </c>
+      <c r="F64" t="s">
         <v>127</v>
-      </c>
-      <c r="F64" t="s">
-        <v>128</v>
       </c>
       <c r="G64" t="n">
         <v>1</v>
@@ -2730,10 +2727,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
+        <v>128</v>
+      </c>
+      <c r="F65" t="s">
         <v>129</v>
-      </c>
-      <c r="F65" t="s">
-        <v>130</v>
       </c>
       <c r="G65" t="n">
         <v>1</v>
@@ -2759,10 +2756,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
+        <v>130</v>
+      </c>
+      <c r="F66" t="s">
         <v>131</v>
-      </c>
-      <c r="F66" t="s">
-        <v>132</v>
       </c>
       <c r="G66" t="n">
         <v>1</v>
@@ -2788,10 +2785,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
+        <v>132</v>
+      </c>
+      <c r="F67" t="s">
         <v>133</v>
-      </c>
-      <c r="F67" t="s">
-        <v>134</v>
       </c>
       <c r="G67" t="n">
         <v>1</v>
@@ -2817,10 +2814,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
+        <v>134</v>
+      </c>
+      <c r="F68" t="s">
         <v>135</v>
-      </c>
-      <c r="F68" t="s">
-        <v>136</v>
       </c>
       <c r="G68" t="n">
         <v>1</v>
@@ -2846,10 +2843,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
+        <v>136</v>
+      </c>
+      <c r="F69" t="s">
         <v>137</v>
-      </c>
-      <c r="F69" t="s">
-        <v>138</v>
       </c>
       <c r="G69" t="n">
         <v>1</v>
@@ -2875,10 +2872,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
+        <v>138</v>
+      </c>
+      <c r="F70" t="s">
         <v>139</v>
-      </c>
-      <c r="F70" t="s">
-        <v>140</v>
       </c>
       <c r="G70" t="n">
         <v>1</v>
@@ -2904,10 +2901,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
+        <v>140</v>
+      </c>
+      <c r="F71" t="s">
         <v>141</v>
-      </c>
-      <c r="F71" t="s">
-        <v>142</v>
       </c>
       <c r="G71" t="n">
         <v>1</v>
@@ -2933,10 +2930,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
+        <v>142</v>
+      </c>
+      <c r="F72" t="s">
         <v>143</v>
-      </c>
-      <c r="F72" t="s">
-        <v>144</v>
       </c>
       <c r="G72" t="n">
         <v>1</v>
@@ -2962,10 +2959,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
+        <v>144</v>
+      </c>
+      <c r="F73" t="s">
         <v>145</v>
-      </c>
-      <c r="F73" t="s">
-        <v>146</v>
       </c>
       <c r="G73" t="n">
         <v>1</v>
@@ -2991,10 +2988,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
+        <v>146</v>
+      </c>
+      <c r="F74" t="s">
         <v>147</v>
-      </c>
-      <c r="F74" t="s">
-        <v>148</v>
       </c>
       <c r="G74" t="n">
         <v>1</v>
@@ -3020,10 +3017,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
+        <v>148</v>
+      </c>
+      <c r="F75" t="s">
         <v>149</v>
-      </c>
-      <c r="F75" t="s">
-        <v>150</v>
       </c>
       <c r="G75" t="n">
         <v>3</v>
@@ -3049,10 +3046,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
+        <v>150</v>
+      </c>
+      <c r="F76" t="s">
         <v>151</v>
-      </c>
-      <c r="F76" t="s">
-        <v>152</v>
       </c>
       <c r="G76" t="n">
         <v>1</v>
@@ -3078,10 +3075,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
+        <v>152</v>
+      </c>
+      <c r="F77" t="s">
         <v>153</v>
-      </c>
-      <c r="F77" t="s">
-        <v>154</v>
       </c>
       <c r="G77" t="n">
         <v>1</v>
@@ -3107,10 +3104,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
+        <v>154</v>
+      </c>
+      <c r="F78" t="s">
         <v>155</v>
-      </c>
-      <c r="F78" t="s">
-        <v>156</v>
       </c>
       <c r="G78" t="n">
         <v>1</v>
@@ -3136,10 +3133,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
+        <v>156</v>
+      </c>
+      <c r="F79" t="s">
         <v>157</v>
-      </c>
-      <c r="F79" t="s">
-        <v>158</v>
       </c>
       <c r="G79" t="n">
         <v>1</v>
@@ -3165,10 +3162,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
+        <v>158</v>
+      </c>
+      <c r="F80" t="s">
         <v>159</v>
-      </c>
-      <c r="F80" t="s">
-        <v>160</v>
       </c>
       <c r="G80" t="n">
         <v>1</v>
@@ -3194,10 +3191,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
+        <v>160</v>
+      </c>
+      <c r="F81" t="s">
         <v>161</v>
-      </c>
-      <c r="F81" t="s">
-        <v>162</v>
       </c>
       <c r="G81" t="n">
         <v>4</v>
@@ -3223,10 +3220,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F82" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G82" t="n">
         <v>1</v>

--- a/xlsx/捷克国家图书馆_intext.xlsx
+++ b/xlsx/捷克国家图书馆_intext.xlsx
@@ -29,7 +29,7 @@
     <t>捷克</t>
   </si>
   <si>
-    <t>政策_政策_維基百科_捷克国家图书馆</t>
+    <t>体育运动_体育运动_宦官_捷克国家图书馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
